--- a/data/real-inflation.xlsx
+++ b/data/real-inflation.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianmc\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IanMcLean\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB54E605-A2AC-4CBA-943C-E09A0F436AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE07931C-CCE1-4409-96D0-6A8FC4BF5545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -473,14 +473,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.26171875" customWidth="1"/>
-    <col min="2" max="2" width="13.83984375" style="3" customWidth="1"/>
-    <col min="3" max="5" width="13.83984375" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,15 +488,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B2" s="3">
-        <v>5.2192183498474289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45291</v>
       </c>
@@ -504,7 +504,7 @@
         <v>4.7970921618762086</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44926</v>
       </c>
@@ -512,7 +512,7 @@
         <v>2.7862174530151527</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44561</v>
       </c>
@@ -520,7 +520,7 @@
         <v>9.8724098652825365</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44196</v>
       </c>
@@ -528,7 +528,7 @@
         <v>7.4648581266847924E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43830</v>
       </c>
@@ -536,7 +536,7 @@
         <v>6.0378686924871516</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43465</v>
       </c>
@@ -544,7 +544,7 @@
         <v>-0.39710709995946192</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43100</v>
       </c>
@@ -552,7 +552,7 @@
         <v>4.0930734647902272</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>42735</v>
       </c>
@@ -560,7 +560,7 @@
         <v>3.5884134053773358</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>42369</v>
       </c>
@@ -568,7 +568,7 @@
         <v>-0.47580570464256111</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>42004</v>
       </c>
@@ -576,7 +576,7 @@
         <v>0.70410392849477077</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>41639</v>
       </c>
@@ -584,7 +584,7 @@
         <v>3.7669586319914177</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>41274</v>
       </c>
@@ -592,7 +592,7 @@
         <v>2.4340728476049156</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>40908</v>
       </c>
@@ -600,7 +600,7 @@
         <v>1.9425588004304568</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>40543</v>
       </c>
@@ -608,7 +608,7 @@
         <v>3.2030151193669378</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>40178</v>
       </c>
@@ -616,7 +616,7 @@
         <v>1.1009023777418496</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>39813</v>
       </c>
@@ -624,7 +624,7 @@
         <v>-4.4722686844508353</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>39447</v>
       </c>
@@ -632,7 +632,7 @@
         <v>3.0127491344358965</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>39082</v>
       </c>
@@ -640,7 +640,7 @@
         <v>2.5030820514457863</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>38717</v>
       </c>
@@ -648,7 +648,7 @@
         <v>3.6327649022172386</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>38352</v>
       </c>
@@ -656,7 +656,7 @@
         <v>2.3509732809828621</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>37986</v>
       </c>
@@ -664,7 +664,7 @@
         <v>4.5579581994366345</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>37621</v>
       </c>
@@ -672,7 +672,7 @@
         <v>-2.0388120887182271</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>37256</v>
       </c>
@@ -680,7 +680,7 @@
         <v>-2.2469430198245424</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>36891</v>
       </c>
@@ -688,7 +688,7 @@
         <v>2.1297100178493227</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>36525</v>
       </c>
@@ -696,7 +696,7 @@
         <v>3.1770303245717537</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>36160</v>
       </c>
@@ -704,7 +704,7 @@
         <v>4.633412014176912</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>35795</v>
       </c>
@@ -712,7 +712,7 @@
         <v>4.3335227871555482</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>35430</v>
       </c>
@@ -720,7 +720,7 @@
         <v>4.8953221309731507</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>35064</v>
       </c>
@@ -728,7 +728,7 @@
         <v>6.3597882649890662</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>34699</v>
       </c>
@@ -736,7 +736,7 @@
         <v>1.0792339353006957</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>34334</v>
       </c>
@@ -744,7 +744,7 @@
         <v>2.4388352772034074</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33969</v>
       </c>
@@ -752,7 +752,7 @@
         <v>2.4121159506027166</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>33603</v>
       </c>
@@ -760,7 +760,7 @@
         <v>5.1641825134338069</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33238</v>
       </c>
@@ -768,7 +768,7 @@
         <v>3.2199615557632524</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>32873</v>
       </c>
@@ -776,7 +776,7 @@
         <v>7.0055802181155951</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>32508</v>
       </c>
@@ -784,7 +784,7 @@
         <v>5.0102602631613378</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>32142</v>
       </c>
@@ -792,7 +792,7 @@
         <v>1.6177763511763219</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>31777</v>
       </c>
@@ -800,7 +800,7 @@
         <v>3.9722034777138502</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>31412</v>
       </c>
@@ -808,7 +808,7 @@
         <v>5.5376541907419048</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>31047</v>
       </c>
@@ -816,7 +816,7 @@
         <v>2.9482744039048492</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>30681</v>
       </c>
@@ -824,7 +824,7 @@
         <v>4.3212276248950756</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>30316</v>
       </c>
@@ -832,7 +832,7 @@
         <v>5.5661124667224628</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>29951</v>
       </c>
@@ -840,7 +840,7 @@
         <v>4.6695231454887756</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>29586</v>
       </c>
@@ -848,7 +848,7 @@
         <v>12.488294615072681</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>29220</v>
       </c>
@@ -856,7 +856,7 @@
         <v>12.858022295565558</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>28855</v>
       </c>
@@ -864,7 +864,7 @@
         <v>8.1924561138617893</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>28490</v>
       </c>
@@ -872,7 +872,7 @@
         <v>3.2326392074948531</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>28125</v>
       </c>
@@ -880,7 +880,7 @@
         <v>4.9531584003005964</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>27759</v>
       </c>
@@ -888,7 +888,7 @@
         <v>9.0230865947784089</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>27394</v>
       </c>
@@ -896,7 +896,7 @@
         <v>6.018783564992745</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>27029</v>
       </c>
@@ -904,7 +904,7 @@
         <v>4.5734977561663186</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>26664</v>
       </c>
@@ -912,7 +912,7 @@
         <v>4.1778081599863635</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>26298</v>
       </c>
@@ -920,7 +920,7 @@
         <v>3.4401589789314095</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>25933</v>
       </c>
@@ -928,7 +928,7 @@
         <v>4.1029426012327903</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>25568</v>
       </c>
@@ -936,7 +936,7 @@
         <v>3.0309746473979788</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>25203</v>
       </c>
@@ -944,7 +944,7 @@
         <v>3.9842779637573011</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>24837</v>
       </c>
@@ -952,7 +952,7 @@
         <v>4.0275163725435954</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>24472</v>
       </c>
@@ -960,7 +960,7 @@
         <v>0.99395961618241946</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>24107</v>
       </c>
@@ -968,7 +968,7 @@
         <v>2.0017488585044361</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>23742</v>
       </c>
@@ -976,7 +976,7 @@
         <v>1.8816689952527086</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>23376</v>
       </c>
@@ -984,7 +984,7 @@
         <v>2.9203240619230777</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>23011</v>
       </c>
@@ -992,7 +992,7 @@
         <v>-0.30030912877423743</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>22646</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>1.416583552050898</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>22281</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>1.4142683528213369</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>21915</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>0.95929402372248984</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>21550</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>4.490667915001147</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>21185</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>1.3421901625352433</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>20820</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>2.3189026874242566</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>20454</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>3.2270879288034009</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>20089</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>3.9122316090244027</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>19724</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>-0.18022456854497412</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>19359</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>0.4979616223787931</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>18993</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>4.8582905564626566</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>18628</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>10.088558515210279</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>18263</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>-1.0545078234908403</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>17898</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>0.61884134002860636</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>17532</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>7.9695403128800439</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>17167</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>11.547111963686206</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>16802</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>6.5137332996718404</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>16437</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>2.9212140554863026</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>16071</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>4.5442589309467998</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>15706</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>6.8591089177993991</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>15341</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>7.2952825964645545</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>14976</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>-1.150908315726157</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>14610</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>-1.6356605025588864</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>14245</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>-1.7038412004583527</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>13880</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>-4.7363142080530043</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>13515</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>4.7686155192978052</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>13149</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>10.008691553397556</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>12784</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>-1.4515177809735609</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>12419</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>8.3531146950558846</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>12054</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>-11.951527988157354</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>11688</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>-16.617324365882805</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>11323</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>-10.563806181823363</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>10958</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>-1.4671879858800438</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>10593</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>5.3066225290428379</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>10227</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>3.1229303762259462</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>9862</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>-1.1976753344135449</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>9497</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>6.1172086477762537</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>9132</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>2.25104859689892</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>8766</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>2.8430351611954974</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>8401</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>4.4331348713015428</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>8036</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>-13.801925620352701</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>7671</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>-4.3602861934232831</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>7305</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>17.17113501301472</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>6940</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>17.130407814375161</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>6575</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>13.898621425275548</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>6210</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>11.378608099701061</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>5844</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>5.9793651112723847</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>5479</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>-1.741753764525672</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>5114</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>0.10232238329980735</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>4749</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>6.6813537455220038</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>4383</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>-1.6369295895254752</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>4018</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>-6.7337909631113968</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>3653</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>10.937992395544274</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>3288</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>6.8069142566801979</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>2922</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>-6.2065711304162763</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>2557</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>3.3519331616005803</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>2192</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>2.7579399368106405</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>1827</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>4.6797221765114774</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>1461</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>-7.0045975633626743</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>1096</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>9.3773219885495607</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>731</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>3.4671442510129462</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>366</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>0.37027832950448714</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>1</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>14.39262445135093</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>2</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>4.3978081919324703</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>3</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>5.550168905998798</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>4</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>-3.7348311197542823</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>5</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>1.7238667773906675</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>6</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>-4.8799295090459394</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>7</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>-16.012739546758777</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>8</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>8.1940977613170425</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>9</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>-3.0880653309479524</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>10</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>0.4558641698849869</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>11</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>-3.2369693080826685</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>12</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>-5.5908505033224785</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>13</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>3.4382433594336841</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>14</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>1.9253874527335113</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>15</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>-0.74855227485744846</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>16</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>-11.895724946318026</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>17</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>-8.0256518625820359</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>18</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>-1.9411789120008456</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>19</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>6.3309534864175552</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>20</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>-1.6923730582123062</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>21</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>23.905636888423555</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>22</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>-6.5817242650043362</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>23</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>-14.846457079252289</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>24</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>-2.4116265778691894</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>25</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>-5.5668065019469744</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>26</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>-6.3230244836775418</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>27</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>-4.8026401586700525</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>28</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>2.5750132377632928</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>29</v>
       </c>
